--- a/MicroPhy/E2_results.xlsx
+++ b/MicroPhy/E2_results.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dennisjakob/ownCloud/MPI/R_workbench/MarMic_MSc/MicroPhy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6459940F-A978-F544-8A7D-523A0644F97E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FF2A65A-C4C6-FC43-AC0E-1D8FFF2B6BFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16460" xr2:uid="{820F800E-4A0D-0F47-AB0A-768BC671984D}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16460" xr2:uid="{563A2827-1C65-F248-AD54-612D69ED72B2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="E2_results_1" localSheetId="0">Sheet1!$A$1:$L$65</definedName>
+    <definedName name="E2_results" localSheetId="0">Sheet1!$A$1:$O$65</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,9 +35,12 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{768CFDBF-D307-444F-AABA-3AA123572E6F}" name="E2_results1" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="1" xr16:uid="{EBDF4201-0F5F-224D-9372-55D28D83908C}" name="E2_results" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="10000" sourceFile="/Users/dennisjakob/ownCloud/MPI/R_workbench/MarMic_MSc/MicroPhy/E2_results.txt">
-      <textFields count="12">
+      <textFields count="15">
+        <textField/>
+        <textField/>
+        <textField/>
         <textField/>
         <textField/>
         <textField/>
@@ -57,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="52">
   <si>
     <t>sample</t>
   </si>
@@ -93,6 +96,15 @@
   </si>
   <si>
     <t>c(NO3-)</t>
+  </si>
+  <si>
+    <t>c(NH4+) sample</t>
+  </si>
+  <si>
+    <t>c(NO2-) sample</t>
+  </si>
+  <si>
+    <t>c(NO3-) sample</t>
   </si>
   <si>
     <t>DL21</t>
@@ -259,7 +271,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="E2_results_1" connectionId="1" xr16:uid="{E153DEAA-4DF0-C348-BFDE-F3134EC20B0F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="E2_results" connectionId="1" xr16:uid="{13BADC06-BC44-CA4B-865E-6F8FC8026F95}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -558,12 +570,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8FF55B6-A836-2349-B50C-763C3D5EFDFE}">
-  <dimension ref="A1:L65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D7608D3-C41D-DA4F-A9B2-CDA96B18E0A0}">
+  <dimension ref="A1:O65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -579,9 +589,11 @@
     <col min="10" max="10" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -618,10 +630,19 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>16</v>
@@ -630,19 +651,19 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <v>0.5</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I2">
         <v>5</v>
@@ -656,10 +677,19 @@
       <c r="L2">
         <v>96.802131942725296</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M2">
+        <v>38.221955584442803</v>
+      </c>
+      <c r="N2">
+        <v>2.0138359781731499</v>
+      </c>
+      <c r="O2">
+        <v>484.01065971362698</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>16</v>
@@ -668,19 +698,19 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>0.5</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I3">
         <v>5</v>
@@ -694,10 +724,19 @@
       <c r="L3">
         <v>99.542141662477704</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M3">
+        <v>4.1708005064473896</v>
+      </c>
+      <c r="N3">
+        <v>5.9319108806587098</v>
+      </c>
+      <c r="O3">
+        <v>497.71070831238899</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <v>16</v>
@@ -706,19 +745,19 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>0.5</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I4">
         <v>5</v>
@@ -732,10 +771,19 @@
       <c r="L4">
         <v>105.733111535468</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M4">
+        <v>60.881229894058897</v>
+      </c>
+      <c r="N4">
+        <v>2.1051660344166501</v>
+      </c>
+      <c r="O4">
+        <v>528.66555767733803</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B5">
         <v>16</v>
@@ -744,19 +792,19 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>0.5</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I5">
         <v>5</v>
@@ -770,10 +818,19 @@
       <c r="L5">
         <v>101.492423140382</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M5">
+        <v>45.5675591789647</v>
+      </c>
+      <c r="N5">
+        <v>2.0412350133122898</v>
+      </c>
+      <c r="O5">
+        <v>507.46211570191099</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B6">
         <v>16</v>
@@ -782,19 +839,19 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I6">
         <v>5</v>
@@ -808,10 +865,19 @@
       <c r="L6">
         <v>15.077169458301601</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M6">
+        <v>123.879039585718</v>
+      </c>
+      <c r="N6">
+        <v>890.82322836503295</v>
+      </c>
+      <c r="O6">
+        <v>75.385847291507901</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B7">
         <v>16</v>
@@ -820,19 +886,19 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I7">
         <v>5</v>
@@ -846,10 +912,19 @@
       <c r="L7">
         <v>17.142121988475299</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7">
+        <v>157.245443637298</v>
+      </c>
+      <c r="N7">
+        <v>896.22997196891197</v>
+      </c>
+      <c r="O7">
+        <v>85.710609942376493</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B8">
         <v>16</v>
@@ -858,19 +933,19 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I8">
         <v>5</v>
@@ -884,10 +959,19 @@
       <c r="L8">
         <v>16.380131188259099</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8">
+        <v>153.88391935737999</v>
+      </c>
+      <c r="N8">
+        <v>898.07486959112498</v>
+      </c>
+      <c r="O8">
+        <v>81.900655941295696</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B9">
         <v>16</v>
@@ -896,19 +980,19 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I9">
         <v>5</v>
@@ -922,10 +1006,19 @@
       <c r="L9">
         <v>15.413433215284799</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9">
+        <v>-16.060700526767899</v>
+      </c>
+      <c r="N9">
+        <v>914.10335081272899</v>
+      </c>
+      <c r="O9">
+        <v>77.067166076424101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B10">
         <v>16</v>
@@ -934,19 +1027,19 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>0.25</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I10">
         <v>5</v>
@@ -960,10 +1053,19 @@
       <c r="L10">
         <v>46.107847053750703</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10">
+        <v>-20.293749938102</v>
+      </c>
+      <c r="N10">
+        <v>1.21012808573869</v>
+      </c>
+      <c r="O10">
+        <v>230.539235268753</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B11">
         <v>16</v>
@@ -972,19 +1074,19 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>0.25</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I11">
         <v>5</v>
@@ -998,10 +1100,19 @@
       <c r="L11">
         <v>44.640651755646203</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11">
+        <v>-3.4237931050518</v>
+      </c>
+      <c r="N11">
+        <v>1.20099513491259</v>
+      </c>
+      <c r="O11">
+        <v>223.203258778231</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B12">
         <v>16</v>
@@ -1010,19 +1121,19 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>0.25</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I12">
         <v>5</v>
@@ -1036,10 +1147,19 @@
       <c r="L12">
         <v>45.688828647011199</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12">
+        <v>-9.5866214411544295</v>
+      </c>
+      <c r="N12">
+        <v>0.57994799427807597</v>
+      </c>
+      <c r="O12">
+        <v>228.444143235056</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B13">
         <v>16</v>
@@ -1048,19 +1168,19 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>0.25</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I13">
         <v>5</v>
@@ -1074,10 +1194,19 @@
       <c r="L13">
         <v>49.383274177742301</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13">
+        <v>42.890777832862398</v>
+      </c>
+      <c r="N13">
+        <v>0.83567308333016999</v>
+      </c>
+      <c r="O13">
+        <v>246.91637088871201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B14">
         <v>16</v>
@@ -1086,19 +1215,19 @@
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E14">
         <v>0.25</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I14">
         <v>5</v>
@@ -1112,10 +1241,19 @@
       <c r="L14">
         <v>-3.90930494448377</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14">
+        <v>-12.512410856958001</v>
+      </c>
+      <c r="N14">
+        <v>238.587028511087</v>
+      </c>
+      <c r="O14">
+        <v>-19.546524722418798</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B15">
         <v>16</v>
@@ -1124,19 +1262,19 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E15">
         <v>0.25</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I15">
         <v>5</v>
@@ -1150,31 +1288,40 @@
       <c r="L15">
         <v>-4.6040094511584098</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15">
+        <v>94.932413607409501</v>
+      </c>
+      <c r="N15">
+        <v>244.258647050972</v>
+      </c>
+      <c r="O15">
+        <v>-23.0200472557921</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
-      </c>
-      <c r="B16">
-        <v>16</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16" t="s">
-        <v>21</v>
       </c>
       <c r="E16">
         <v>0.25</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I16">
         <v>5</v>
@@ -1188,31 +1335,40 @@
       <c r="L16">
         <v>-6.2411842089212399</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M16">
+        <v>47.061603239618698</v>
+      </c>
+      <c r="N16">
+        <v>244.57830224782401</v>
+      </c>
+      <c r="O16">
+        <v>-31.2059210446062</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
-      </c>
-      <c r="B17">
-        <v>16</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
       </c>
       <c r="E17">
         <v>0.25</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I17">
         <v>5</v>
@@ -1226,10 +1382,19 @@
       <c r="L17">
         <v>-6.7648834493640804</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M17">
+        <v>-34.6114288373929</v>
+      </c>
+      <c r="N17">
+        <v>244.80663350757101</v>
+      </c>
+      <c r="O17">
+        <v>-33.824417246820403</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>54</v>
@@ -1238,19 +1403,19 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E18">
         <v>0.5</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I18">
         <v>5</v>
@@ -1264,10 +1429,19 @@
       <c r="L18">
         <v>75.918244647558097</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M18">
+        <v>36.0432065629441</v>
+      </c>
+      <c r="N18">
+        <v>3.4203237396336199</v>
+      </c>
+      <c r="O18">
+        <v>379.59122323779002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>54</v>
@@ -1276,19 +1450,19 @@
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E19">
         <v>0.5</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I19">
         <v>5</v>
@@ -1302,10 +1476,19 @@
       <c r="L19">
         <v>70.487034833567705</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M19">
+        <v>-43.077538242692398</v>
+      </c>
+      <c r="N19">
+        <v>3.34725985903358</v>
+      </c>
+      <c r="O19">
+        <v>352.43517416783902</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B20">
         <v>54</v>
@@ -1314,19 +1497,19 @@
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E20">
         <v>0.5</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I20">
         <v>5</v>
@@ -1340,10 +1523,19 @@
       <c r="L20">
         <v>82.232494186691298</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M20">
+        <v>35.669695703407498</v>
+      </c>
+      <c r="N20">
+        <v>1.5571839616776599</v>
+      </c>
+      <c r="O20">
+        <v>411.16247093345601</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B21">
         <v>54</v>
@@ -1352,19 +1544,19 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E21">
         <v>0.5</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I21">
         <v>5</v>
@@ -1378,10 +1570,19 @@
       <c r="L21">
         <v>81.636261916286699</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M21">
+        <v>52.975424751035398</v>
+      </c>
+      <c r="N21">
+        <v>1.7215785378341399</v>
+      </c>
+      <c r="O21">
+        <v>408.18130958143399</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B22">
         <v>54</v>
@@ -1390,19 +1591,19 @@
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I22">
         <v>5</v>
@@ -1416,10 +1617,19 @@
       <c r="L22">
         <v>4.2909868190185003</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M22">
+        <v>121.264500296918</v>
+      </c>
+      <c r="N22">
+        <v>629.919618285605</v>
+      </c>
+      <c r="O22">
+        <v>21.454934095092501</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>54</v>
@@ -1428,19 +1638,19 @@
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I23">
         <v>5</v>
@@ -1454,10 +1664,19 @@
       <c r="L23">
         <v>-2.8248739153843498</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M23">
+        <v>128.859110716126</v>
+      </c>
+      <c r="N23">
+        <v>666.14126411767097</v>
+      </c>
+      <c r="O23">
+        <v>-14.124369576921801</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B24">
         <v>54</v>
@@ -1466,19 +1685,19 @@
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="H24" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I24">
         <v>5</v>
@@ -1492,10 +1711,19 @@
       <c r="L24">
         <v>7.35252679951574</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M24">
+        <v>21.103018072030999</v>
+      </c>
+      <c r="N24">
+        <v>642.56889016611296</v>
+      </c>
+      <c r="O24">
+        <v>36.762633997578703</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B25">
         <v>54</v>
@@ -1504,19 +1732,19 @@
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I25">
         <v>5</v>
@@ -1530,10 +1758,19 @@
       <c r="L25">
         <v>6.3578086591794101</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M25">
+        <v>-3.3615410876265002</v>
+      </c>
+      <c r="N25">
+        <v>642.76980686454897</v>
+      </c>
+      <c r="O25">
+        <v>31.789043295896999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B26">
         <v>54</v>
@@ -1542,19 +1779,19 @@
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E26">
         <v>0.25</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G26">
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I26">
         <v>5</v>
@@ -1568,10 +1805,19 @@
       <c r="L26">
         <v>39.5746305438213</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M26">
+        <v>-8.7151056473540898</v>
+      </c>
+      <c r="N26">
+        <v>2.1142994418948602</v>
+      </c>
+      <c r="O26">
+        <v>197.873152719106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>54</v>
@@ -1580,19 +1826,19 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E27">
         <v>0.25</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G27">
         <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I27">
         <v>5</v>
@@ -1606,10 +1852,19 @@
       <c r="L27">
         <v>37.750274857893302</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M27">
+        <v>30.4406158807911</v>
+      </c>
+      <c r="N27">
+        <v>2.30609323585132</v>
+      </c>
+      <c r="O27">
+        <v>188.75137428946701</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B28">
         <v>54</v>
@@ -1618,19 +1873,19 @@
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E28">
         <v>0.25</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
       <c r="H28" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I28">
         <v>5</v>
@@ -1644,10 +1899,19 @@
       <c r="L28">
         <v>42.085715879496298</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M28">
+        <v>50.547649607111403</v>
+      </c>
+      <c r="N28">
+        <v>2.2604282990599902</v>
+      </c>
+      <c r="O28">
+        <v>210.428579397481</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
         <v>54</v>
@@ -1656,19 +1920,19 @@
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E29">
         <v>0.25</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G29">
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I29">
         <v>5</v>
@@ -1682,10 +1946,19 @@
       <c r="L29">
         <v>39.690361952126203</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M29">
+        <v>12.2011557498932</v>
+      </c>
+      <c r="N29">
+        <v>2.37002425695569</v>
+      </c>
+      <c r="O29">
+        <v>198.45180976063099</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
         <v>54</v>
@@ -1694,19 +1967,19 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E30">
         <v>0.25</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G30">
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I30">
         <v>5</v>
@@ -1720,10 +1993,19 @@
       <c r="L30">
         <v>-4.8684437575650898</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M30">
+        <v>103.14952428062399</v>
+      </c>
+      <c r="N30">
+        <v>241.345207699008</v>
+      </c>
+      <c r="O30">
+        <v>-24.342218787825502</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B31">
         <v>54</v>
@@ -1732,19 +2014,19 @@
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E31">
         <v>0.25</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G31">
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I31">
         <v>5</v>
@@ -1758,10 +2040,19 @@
       <c r="L31">
         <v>-4.2694527559468503</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M31">
+        <v>40.089509882125803</v>
+      </c>
+      <c r="N31">
+        <v>236.82435292749599</v>
+      </c>
+      <c r="O31">
+        <v>-21.347263779734298</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B32">
         <v>54</v>
@@ -1770,19 +2061,19 @@
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E32">
         <v>0.25</v>
       </c>
       <c r="F32" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G32">
         <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I32">
         <v>5</v>
@@ -1796,10 +2087,19 @@
       <c r="L32">
         <v>-5.0168650732703002</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M32">
+        <v>41.0232415879033</v>
+      </c>
+      <c r="N32">
+        <v>242.89782130372899</v>
+      </c>
+      <c r="O32">
+        <v>-25.0843253663515</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B33">
         <v>54</v>
@@ -1808,19 +2108,19 @@
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E33">
         <v>0.25</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G33">
         <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I33">
         <v>5</v>
@@ -1834,10 +2134,19 @@
       <c r="L33">
         <v>-6.6587477404977404</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M33">
+        <v>-34.362412052583302</v>
+      </c>
+      <c r="N33">
+        <v>247.91186044302299</v>
+      </c>
+      <c r="O33">
+        <v>-33.293738702488703</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B34">
         <v>89</v>
@@ -1846,19 +2155,19 @@
         <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E34">
         <v>0.5</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G34">
         <v>1</v>
       </c>
       <c r="H34" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I34">
         <v>2</v>
@@ -1872,10 +2181,19 @@
       <c r="L34">
         <v>131.887029749036</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M34">
+        <v>13.7698673710251</v>
+      </c>
+      <c r="N34">
+        <v>1.63481450948463</v>
+      </c>
+      <c r="O34">
+        <v>263.77405949807297</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B35">
         <v>89</v>
@@ -1884,19 +2202,19 @@
         <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E35">
         <v>0.5</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G35">
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I35">
         <v>2</v>
@@ -1910,10 +2228,19 @@
       <c r="L35">
         <v>120.57718088596999</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M35">
+        <v>27.0168369689153</v>
+      </c>
+      <c r="N35">
+        <v>1.7444111249593499</v>
+      </c>
+      <c r="O35">
+        <v>241.15436177193999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B36">
         <v>89</v>
@@ -1922,19 +2249,19 @@
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E36">
         <v>0.5</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G36">
         <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I36">
         <v>2</v>
@@ -1948,10 +2275,19 @@
       <c r="L36">
         <v>154.97394390282901</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M36">
+        <v>24.900308216948002</v>
+      </c>
+      <c r="N36">
+        <v>1.49233908837511</v>
+      </c>
+      <c r="O36">
+        <v>309.94788780565898</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B37">
         <v>89</v>
@@ -1960,19 +2296,19 @@
         <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E37">
         <v>0.5</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G37">
         <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I37">
         <v>2</v>
@@ -1986,10 +2322,19 @@
       <c r="L37">
         <v>160.31037142348001</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M37">
+        <v>25.6473227149317</v>
+      </c>
+      <c r="N37">
+        <v>1.6238548223646401</v>
+      </c>
+      <c r="O37">
+        <v>320.62074284696001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B38">
         <v>89</v>
@@ -1998,19 +2343,19 @@
         <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E38">
         <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G38">
         <v>1</v>
       </c>
       <c r="H38" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I38">
         <v>2</v>
@@ -2024,10 +2369,19 @@
       <c r="L38">
         <v>12.9546297679088</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M38">
+        <v>60.1840462678786</v>
+      </c>
+      <c r="N38">
+        <v>378.95001852514503</v>
+      </c>
+      <c r="O38">
+        <v>25.909259535817501</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B39">
         <v>89</v>
@@ -2036,19 +2390,19 @@
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E39">
         <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G39">
         <v>1</v>
       </c>
       <c r="H39" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I39">
         <v>2</v>
@@ -2062,10 +2416,19 @@
       <c r="L39">
         <v>5.9180201744715903</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M39">
+        <v>49.377314418548899</v>
+      </c>
+      <c r="N39">
+        <v>380.137306333737</v>
+      </c>
+      <c r="O39">
+        <v>11.8360403489432</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B40">
         <v>89</v>
@@ -2074,19 +2437,19 @@
         <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E40">
         <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G40">
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I40">
         <v>2</v>
@@ -2100,10 +2463,19 @@
       <c r="L40">
         <v>11.140963720780301</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M40">
+        <v>-47.833489784715603</v>
+      </c>
+      <c r="N40">
+        <v>364.52711155658699</v>
+      </c>
+      <c r="O40">
+        <v>22.281927441560502</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>89</v>
@@ -2112,19 +2484,19 @@
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E41">
         <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G41">
         <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I41">
         <v>2</v>
@@ -2138,10 +2510,19 @@
       <c r="L41">
         <v>13.3688403448658</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M41">
+        <v>-37.624368338558</v>
+      </c>
+      <c r="N41">
+        <v>366.36467536421497</v>
+      </c>
+      <c r="O41">
+        <v>26.737680689731601</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>89</v>
@@ -2150,19 +2531,19 @@
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E42">
         <v>0.25</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G42">
         <v>1</v>
       </c>
       <c r="H42" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I42">
         <v>2</v>
@@ -2176,10 +2557,19 @@
       <c r="L42">
         <v>101.738278484021</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M42">
+        <v>-9.5368155941616504</v>
+      </c>
+      <c r="N42">
+        <v>3.7902126410838202</v>
+      </c>
+      <c r="O42">
+        <v>203.476556968041</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B43">
         <v>89</v>
@@ -2188,19 +2578,19 @@
         <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E43">
         <v>0.25</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G43">
         <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I43">
         <v>2</v>
@@ -2214,10 +2604,19 @@
       <c r="L43">
         <v>87.043070978414505</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M43">
+        <v>1.6683202025789601</v>
+      </c>
+      <c r="N43">
+        <v>3.6294709895325901</v>
+      </c>
+      <c r="O43">
+        <v>174.08614195682901</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B44">
         <v>89</v>
@@ -2226,19 +2625,19 @@
         <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E44">
         <v>0.25</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G44">
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I44">
         <v>2</v>
@@ -2252,10 +2651,19 @@
       <c r="L44">
         <v>106.15394029628401</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M44">
+        <v>13.2967610027038</v>
+      </c>
+      <c r="N44">
+        <v>4.2176390140088804</v>
+      </c>
+      <c r="O44">
+        <v>212.30788059256901</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B45">
         <v>89</v>
@@ -2264,19 +2672,19 @@
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E45">
         <v>0.25</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G45">
         <v>1</v>
       </c>
       <c r="H45" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I45">
         <v>2</v>
@@ -2290,10 +2698,19 @@
       <c r="L45">
         <v>104.293673363686</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M45">
+        <v>18.550729680141998</v>
+      </c>
+      <c r="N45">
+        <v>3.9436479319741702</v>
+      </c>
+      <c r="O45">
+        <v>208.58734672737299</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B46">
         <v>89</v>
@@ -2302,19 +2719,19 @@
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E46">
         <v>0.25</v>
       </c>
       <c r="F46" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G46">
         <v>1</v>
       </c>
       <c r="H46" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I46">
         <v>2</v>
@@ -2328,10 +2745,19 @@
       <c r="L46">
         <v>-2.2386272096143398</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M46">
+        <v>16.533796436959499</v>
+      </c>
+      <c r="N46">
+        <v>211.60710354374601</v>
+      </c>
+      <c r="O46">
+        <v>-4.4772544192286796</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B47">
         <v>89</v>
@@ -2340,19 +2766,19 @@
         <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E47">
         <v>0.25</v>
       </c>
       <c r="F47" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G47">
         <v>1</v>
       </c>
       <c r="H47" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I47">
         <v>2</v>
@@ -2366,10 +2792,19 @@
       <c r="L47">
         <v>-0.22400951146377099</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M47">
+        <v>7.0965902957556501</v>
+      </c>
+      <c r="N47">
+        <v>215.158035996687</v>
+      </c>
+      <c r="O47">
+        <v>-0.44801902292754198</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B48">
         <v>89</v>
@@ -2378,19 +2813,19 @@
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E48">
         <v>0.25</v>
       </c>
       <c r="F48" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G48">
         <v>1</v>
       </c>
       <c r="H48" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I48">
         <v>2</v>
@@ -2404,10 +2839,19 @@
       <c r="L48">
         <v>-6.4729492746254298</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M48">
+        <v>29.5566669892204</v>
+      </c>
+      <c r="N48">
+        <v>219.837803802049</v>
+      </c>
+      <c r="O48">
+        <v>-12.9458985492509</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B49">
         <v>89</v>
@@ -2416,19 +2860,19 @@
         <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E49">
         <v>0.25</v>
       </c>
       <c r="F49" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G49">
         <v>1</v>
       </c>
       <c r="H49" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I49">
         <v>2</v>
@@ -2442,10 +2886,19 @@
       <c r="L49">
         <v>-5.3771296988775799</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M49">
+        <v>17.853523768185202</v>
+      </c>
+      <c r="N49">
+        <v>220.524609339395</v>
+      </c>
+      <c r="O49">
+        <v>-10.754259397755201</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B50">
         <v>115</v>
@@ -2454,19 +2907,19 @@
         <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E50">
         <v>0.5</v>
       </c>
       <c r="F50" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G50">
         <v>1</v>
       </c>
       <c r="H50" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I50">
         <v>2</v>
@@ -2480,10 +2933,19 @@
       <c r="L50">
         <v>95.041145048481297</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M50">
+        <v>58.042620443987602</v>
+      </c>
+      <c r="N50">
+        <v>1.20008188549519</v>
+      </c>
+      <c r="O50">
+        <v>190.08229009696299</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B51">
         <v>115</v>
@@ -2492,19 +2954,19 @@
         <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E51">
         <v>0.5</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G51">
         <v>1</v>
       </c>
       <c r="H51" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I51">
         <v>2</v>
@@ -2518,10 +2980,19 @@
       <c r="L51">
         <v>97.942865403358397</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M51">
+        <v>53.4111587436389</v>
+      </c>
+      <c r="N51">
+        <v>1.14528348642741</v>
+      </c>
+      <c r="O51">
+        <v>195.88573080671699</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B52">
         <v>115</v>
@@ -2530,19 +3001,19 @@
         <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E52">
         <v>0.5</v>
       </c>
       <c r="F52" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G52">
         <v>1</v>
       </c>
       <c r="H52" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I52">
         <v>2</v>
@@ -2556,10 +3027,19 @@
       <c r="L52">
         <v>144.25185314468601</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M52">
+        <v>27.9381454125446</v>
+      </c>
+      <c r="N52">
+        <v>1.2110412803578401</v>
+      </c>
+      <c r="O52">
+        <v>288.50370628937299</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B53">
         <v>115</v>
@@ -2568,19 +3048,19 @@
         <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E53">
         <v>0.5</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G53">
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I53">
         <v>2</v>
@@ -2594,10 +3074,19 @@
       <c r="L53">
         <v>152.00551382919701</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M53">
+        <v>34.7857236545495</v>
+      </c>
+      <c r="N53">
+        <v>1.14528348642741</v>
+      </c>
+      <c r="O53">
+        <v>304.01102765839499</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B54">
         <v>115</v>
@@ -2606,19 +3095,19 @@
         <v>2</v>
       </c>
       <c r="D54" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E54">
         <v>1</v>
       </c>
       <c r="F54" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G54">
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I54">
         <v>2</v>
@@ -2632,10 +3121,19 @@
       <c r="L54">
         <v>-0.64328511309954906</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M54">
+        <v>75.398136040868906</v>
+      </c>
+      <c r="N54">
+        <v>229.59554954916101</v>
+      </c>
+      <c r="O54">
+        <v>-1.2865702261991001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B55">
         <v>115</v>
@@ -2644,19 +3142,19 @@
         <v>2</v>
       </c>
       <c r="D55" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E55">
         <v>1</v>
       </c>
       <c r="F55" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G55">
         <v>1</v>
       </c>
       <c r="H55" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I55">
         <v>2</v>
@@ -2670,10 +3168,19 @@
       <c r="L55">
         <v>-2.19709029786548</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M55">
+        <v>65.5376176751912</v>
+      </c>
+      <c r="N55">
+        <v>234.35568841775799</v>
+      </c>
+      <c r="O55">
+        <v>-4.3941805957309699</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B56">
         <v>115</v>
@@ -2682,19 +3189,19 @@
         <v>2</v>
       </c>
       <c r="D56" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E56">
         <v>1</v>
       </c>
       <c r="F56" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G56">
         <v>1</v>
       </c>
       <c r="H56" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I56">
         <v>2</v>
@@ -2708,10 +3215,19 @@
       <c r="L56">
         <v>-1.7475346537693399</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M56">
+        <v>71.165086256030094</v>
+      </c>
+      <c r="N56">
+        <v>201.62286434242799</v>
+      </c>
+      <c r="O56">
+        <v>-3.4950693075386798</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B57">
         <v>115</v>
@@ -2720,19 +3236,19 @@
         <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E57">
         <v>1</v>
       </c>
       <c r="F57" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G57">
         <v>1</v>
       </c>
       <c r="H57" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I57">
         <v>2</v>
@@ -2746,10 +3262,19 @@
       <c r="L57">
         <v>-2.0437312683682598</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M57">
+        <v>71.8622919189838</v>
+      </c>
+      <c r="N57">
+        <v>204.545439366865</v>
+      </c>
+      <c r="O57">
+        <v>-4.0874625367365196</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B58">
         <v>115</v>
@@ -2758,19 +3283,19 @@
         <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E58">
         <v>0.25</v>
       </c>
       <c r="F58" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G58">
         <v>1</v>
       </c>
       <c r="H58" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I58">
         <v>2</v>
@@ -2784,10 +3309,19 @@
       <c r="L58">
         <v>98.569254884298701</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M58">
+        <v>5.7270723067256499</v>
+      </c>
+      <c r="N58">
+        <v>3.8998089643011999</v>
+      </c>
+      <c r="O58">
+        <v>197.138509768597</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B59">
         <v>115</v>
@@ -2796,19 +3330,19 @@
         <v>2</v>
       </c>
       <c r="D59" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E59">
         <v>0.25</v>
       </c>
       <c r="F59" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G59">
         <v>1</v>
       </c>
       <c r="H59" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I59">
         <v>2</v>
@@ -2822,10 +3356,19 @@
       <c r="L59">
         <v>112.046945020625</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M59">
+        <v>-12.0766495985162</v>
+      </c>
+      <c r="N59">
+        <v>3.9107688340820301</v>
+      </c>
+      <c r="O59">
+        <v>224.09389004124901</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B60">
         <v>115</v>
@@ -2834,19 +3377,19 @@
         <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E60">
         <v>0.25</v>
       </c>
       <c r="F60" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G60">
         <v>1</v>
       </c>
       <c r="H60" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I60">
         <v>2</v>
@@ -2860,10 +3403,19 @@
       <c r="L60">
         <v>114.25994199701</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M60">
+        <v>3.3615402161157002</v>
+      </c>
+      <c r="N60">
+        <v>3.9436476031846501</v>
+      </c>
+      <c r="O60">
+        <v>228.51988399402001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B61">
         <v>115</v>
@@ -2872,19 +3424,19 @@
         <v>2</v>
       </c>
       <c r="D61" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E61">
         <v>0.25</v>
       </c>
       <c r="F61" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G61">
         <v>1</v>
       </c>
       <c r="H61" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I61">
         <v>2</v>
@@ -2898,10 +3450,19 @@
       <c r="L61">
         <v>126.66786781910599</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M61">
+        <v>12.0766508435317</v>
+      </c>
+      <c r="N61">
+        <v>3.7719465202386102</v>
+      </c>
+      <c r="O61">
+        <v>253.33573563821301</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B62">
         <v>115</v>
@@ -2910,19 +3471,19 @@
         <v>2</v>
       </c>
       <c r="D62" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E62">
         <v>0.25</v>
       </c>
       <c r="F62" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G62">
         <v>1</v>
       </c>
       <c r="H62" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I62">
         <v>2</v>
@@ -2936,10 +3497,19 @@
       <c r="L62">
         <v>1.8685320146350302E-2</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M62">
+        <v>27.315638435455</v>
+      </c>
+      <c r="N62">
+        <v>213.218173860636</v>
+      </c>
+      <c r="O62">
+        <v>3.7370640292700701E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B63">
         <v>115</v>
@@ -2948,19 +3518,19 @@
         <v>2</v>
       </c>
       <c r="D63" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E63">
         <v>0.25</v>
       </c>
       <c r="F63" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G63">
         <v>1</v>
       </c>
       <c r="H63" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I63">
         <v>2</v>
@@ -2974,10 +3544,19 @@
       <c r="L63">
         <v>-4.0166226053500598</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M63">
+        <v>45.667161161829704</v>
+      </c>
+      <c r="N63">
+        <v>215.91790057412001</v>
+      </c>
+      <c r="O63">
+        <v>-8.0332452107001107</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B64">
         <v>115</v>
@@ -2986,19 +3565,19 @@
         <v>2</v>
       </c>
       <c r="D64" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E64">
         <v>0.25</v>
       </c>
       <c r="F64" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G64">
         <v>1</v>
       </c>
       <c r="H64" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I64">
         <v>2</v>
@@ -3012,10 +3591,19 @@
       <c r="L64">
         <v>-6.0735383365249502</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M64">
+        <v>8.5906078375807304</v>
+      </c>
+      <c r="N64">
+        <v>222.431591427717</v>
+      </c>
+      <c r="O64">
+        <v>-12.1470766730499</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B65">
         <v>115</v>
@@ -3024,19 +3612,19 @@
         <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E65">
         <v>0.25</v>
       </c>
       <c r="F65" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G65">
         <v>1</v>
       </c>
       <c r="H65" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I65">
         <v>2</v>
@@ -3049,6 +3637,15 @@
       </c>
       <c r="L65">
         <v>-6.2486151159099999</v>
+      </c>
+      <c r="M65">
+        <v>4.5069551754669899</v>
+      </c>
+      <c r="N65">
+        <v>218.511688163256</v>
+      </c>
+      <c r="O65">
+        <v>-12.49723023182</v>
       </c>
     </row>
   </sheetData>
